--- a/Code/Results/Cases/Case_3_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.5640689104164</v>
+        <v>15.4694297723977</v>
       </c>
       <c r="C2">
-        <v>6.693999583948147</v>
+        <v>8.683885546606298</v>
       </c>
       <c r="D2">
-        <v>5.857912026585058</v>
+        <v>8.593108863058685</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.06804839520033</v>
+        <v>37.79784550607309</v>
       </c>
       <c r="G2">
-        <v>2.118266257366062</v>
+        <v>3.690059463900416</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.248863645815955</v>
+        <v>10.77896947804523</v>
       </c>
       <c r="K2">
-        <v>10.91986577299915</v>
+        <v>11.3506856861423</v>
       </c>
       <c r="L2">
-        <v>7.213578490435559</v>
+        <v>11.44264638805152</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.634994502379</v>
+        <v>21.05059790501653</v>
       </c>
       <c r="O2">
-        <v>18.46748877737134</v>
+        <v>28.88443165949083</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.72673606824085</v>
+        <v>15.28884554334859</v>
       </c>
       <c r="C3">
-        <v>6.658668758934503</v>
+        <v>8.675411024714535</v>
       </c>
       <c r="D3">
-        <v>5.669676672691114</v>
+        <v>8.576835544423885</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.88788649490109</v>
+        <v>37.87246794870862</v>
       </c>
       <c r="G3">
-        <v>2.122976753121435</v>
+        <v>3.691879701003637</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.286916155595526</v>
+        <v>10.80086028108293</v>
       </c>
       <c r="K3">
-        <v>10.22977689673364</v>
+        <v>11.22063055540641</v>
       </c>
       <c r="L3">
-        <v>7.064609552577212</v>
+        <v>11.44061519637718</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.83699232682897</v>
+        <v>21.11144189968054</v>
       </c>
       <c r="O3">
-        <v>18.47763791571704</v>
+        <v>28.96169543763779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.19052500751884</v>
+        <v>15.17978464295783</v>
       </c>
       <c r="C4">
-        <v>6.637292999436833</v>
+        <v>8.670320227093759</v>
       </c>
       <c r="D4">
-        <v>5.553072497222016</v>
+        <v>8.568063319501388</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.79421959024489</v>
+        <v>37.92544024266504</v>
       </c>
       <c r="G4">
-        <v>2.125964507534756</v>
+        <v>3.693057583477803</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.312085487194294</v>
+        <v>10.8152231293014</v>
       </c>
       <c r="K4">
-        <v>9.781962589618958</v>
+        <v>11.1418983205292</v>
       </c>
       <c r="L4">
-        <v>6.974383150548389</v>
+        <v>11.4408546834273</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.96387367717775</v>
+        <v>21.15055307974167</v>
       </c>
       <c r="O4">
-        <v>18.4962852064851</v>
+        <v>29.01406356972372</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.96665086555513</v>
+        <v>15.1358480352021</v>
       </c>
       <c r="C5">
-        <v>6.628662465965491</v>
+        <v>8.668274516789051</v>
       </c>
       <c r="D5">
-        <v>5.50536864167787</v>
+        <v>8.564798025370035</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.76022828528877</v>
+        <v>37.94882413945309</v>
       </c>
       <c r="G5">
-        <v>2.127206513485732</v>
+        <v>3.693552776935203</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.32279108381235</v>
+        <v>10.8213083720723</v>
       </c>
       <c r="K5">
-        <v>9.593413640056083</v>
+        <v>11.11013066652833</v>
       </c>
       <c r="L5">
-        <v>6.937969053538164</v>
+        <v>11.44132746088841</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>14.01631716768094</v>
+        <v>21.16693322714111</v>
       </c>
       <c r="O5">
-        <v>18.50690457391176</v>
+        <v>29.03664223690106</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.9291591661318</v>
+        <v>15.1285844158371</v>
       </c>
       <c r="C6">
-        <v>6.627234233487327</v>
+        <v>8.667936584532143</v>
       </c>
       <c r="D6">
-        <v>5.497438361725529</v>
+        <v>8.564274593118473</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.75483381632531</v>
+        <v>37.95281551411082</v>
       </c>
       <c r="G6">
-        <v>2.127414238786433</v>
+        <v>3.693635922649992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.32459571198834</v>
+        <v>10.82233286410175</v>
       </c>
       <c r="K6">
-        <v>9.561739270492296</v>
+        <v>11.1048757689132</v>
       </c>
       <c r="L6">
-        <v>6.931945118186365</v>
+        <v>11.44142866267839</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>14.02507055021084</v>
+        <v>21.16967987319547</v>
       </c>
       <c r="O6">
-        <v>18.50884736810278</v>
+        <v>29.04046616503287</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.1875271982701</v>
+        <v>15.17918998282022</v>
       </c>
       <c r="C7">
-        <v>6.637176279466795</v>
+        <v>8.670292520509047</v>
       </c>
       <c r="D7">
-        <v>5.55242980419593</v>
+        <v>8.568018026107046</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.79374436945149</v>
+        <v>37.92574833143428</v>
       </c>
       <c r="G7">
-        <v>2.125981157979054</v>
+        <v>3.693064200236455</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.312228055421764</v>
+        <v>10.81530425595258</v>
       </c>
       <c r="K7">
-        <v>9.779444289818585</v>
+        <v>11.14146856507205</v>
       </c>
       <c r="L7">
-        <v>6.973890569066008</v>
+        <v>11.44085953865709</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.96457793227875</v>
+        <v>21.15077219669419</v>
       </c>
       <c r="O7">
-        <v>18.49641632754774</v>
+        <v>29.01436306126651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.28004149242027</v>
+        <v>15.40681671279406</v>
       </c>
       <c r="C8">
-        <v>6.681751837737187</v>
+        <v>8.680940473442691</v>
       </c>
       <c r="D8">
-        <v>5.793262948571555</v>
+        <v>8.587246400607089</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.00236171072677</v>
+        <v>37.82208965750536</v>
       </c>
       <c r="G8">
-        <v>2.119870899850383</v>
+        <v>3.690674604923879</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.261606451276198</v>
+        <v>10.78632638846368</v>
       </c>
       <c r="K8">
-        <v>10.68692108668702</v>
+        <v>11.30563043755872</v>
       </c>
       <c r="L8">
-        <v>7.161981389618759</v>
+        <v>11.44163832577275</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.70406377710593</v>
+        <v>21.07121391599029</v>
       </c>
       <c r="O8">
-        <v>18.46835026882304</v>
+        <v>28.91004889906328</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.24086245780167</v>
+        <v>15.8654228435011</v>
       </c>
       <c r="C9">
-        <v>6.771674403617234</v>
+        <v>8.702692359880638</v>
       </c>
       <c r="D9">
-        <v>6.254516075426519</v>
+        <v>8.634501218719317</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.54934058206905</v>
+        <v>37.67564068144549</v>
       </c>
       <c r="G9">
-        <v>2.108624562703437</v>
+        <v>3.686464545824408</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.176897759428233</v>
+        <v>10.73679392798464</v>
       </c>
       <c r="K9">
-        <v>12.27574196726093</v>
+        <v>11.63493397923706</v>
       </c>
       <c r="L9">
-        <v>7.538869479669379</v>
+        <v>11.4548980996567</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.21485241775053</v>
+        <v>20.92904761927961</v>
       </c>
       <c r="O9">
-        <v>18.51635499742002</v>
+        <v>28.74462896259673</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.56456037649184</v>
+        <v>16.20685124540077</v>
       </c>
       <c r="C10">
-        <v>6.83927520158518</v>
+        <v>8.719175978805309</v>
       </c>
       <c r="D10">
-        <v>6.583242102864618</v>
+        <v>8.674855284577243</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.03930842721295</v>
+        <v>37.60275842662842</v>
       </c>
       <c r="G10">
-        <v>2.100778512990399</v>
+        <v>3.683658585162745</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.12389266054442</v>
+        <v>10.70481948861063</v>
       </c>
       <c r="K10">
-        <v>13.32784811305701</v>
+        <v>11.87932627443603</v>
       </c>
       <c r="L10">
-        <v>7.818345992787703</v>
+        <v>11.47170203203484</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.86717385909988</v>
+        <v>20.83295450368857</v>
       </c>
       <c r="O10">
-        <v>18.62060014251006</v>
+        <v>28.64700680276357</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.14058122688304</v>
+        <v>16.36252373966465</v>
       </c>
       <c r="C11">
-        <v>6.870366880218806</v>
+        <v>8.72677775661154</v>
       </c>
       <c r="D11">
-        <v>6.729974208584427</v>
+        <v>8.694393801973076</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.28204612936588</v>
+        <v>37.57714871102992</v>
       </c>
       <c r="G11">
-        <v>2.097292167660957</v>
+        <v>3.682443806053085</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.101868792747354</v>
+        <v>10.69122649926382</v>
       </c>
       <c r="K11">
-        <v>13.78179232881383</v>
+        <v>11.99060702596748</v>
       </c>
       <c r="L11">
-        <v>7.945590776111762</v>
+        <v>11.48085820715746</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.71121508069997</v>
+        <v>20.79103559702131</v>
       </c>
       <c r="O11">
-        <v>18.68430217475983</v>
+        <v>28.60779767399776</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.35490880437311</v>
+        <v>16.42147224510433</v>
       </c>
       <c r="C12">
-        <v>6.882189914843171</v>
+        <v>8.729670644030923</v>
       </c>
       <c r="D12">
-        <v>6.785091310106033</v>
+        <v>8.701958399303136</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>26.37686616680221</v>
+        <v>37.5685359290612</v>
       </c>
       <c r="G12">
-        <v>2.095983250233495</v>
+        <v>3.681992620608324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.093837016523182</v>
+        <v>10.68621566714397</v>
       </c>
       <c r="K12">
-        <v>13.95017337996915</v>
+        <v>12.03272571783718</v>
       </c>
       <c r="L12">
-        <v>7.993755907489035</v>
+        <v>11.48454074415533</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.65244458411306</v>
+        <v>20.7754186796307</v>
       </c>
       <c r="O12">
-        <v>18.7108703359238</v>
+        <v>28.59369855763495</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.30891895477453</v>
+        <v>16.40877750942814</v>
       </c>
       <c r="C13">
-        <v>6.879641410488384</v>
+        <v>8.729046984330779</v>
       </c>
       <c r="D13">
-        <v>6.773241375957142</v>
+        <v>8.700321921432133</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>26.35631529478786</v>
+        <v>37.57034258946836</v>
       </c>
       <c r="G13">
-        <v>2.096264657498015</v>
+        <v>3.682089399643888</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.095552965213457</v>
+        <v>10.68728877339116</v>
       </c>
       <c r="K13">
-        <v>13.91406546617795</v>
+        <v>12.02365620090058</v>
       </c>
       <c r="L13">
-        <v>7.983384094965064</v>
+        <v>11.4837381040335</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.66508954569673</v>
+        <v>20.77877065652944</v>
       </c>
       <c r="O13">
-        <v>18.70503799097121</v>
+        <v>28.59670175152862</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.1582903958686</v>
+        <v>16.36737379066634</v>
       </c>
       <c r="C14">
-        <v>6.871338576993407</v>
+        <v>8.727015473857511</v>
       </c>
       <c r="D14">
-        <v>6.734517916437174</v>
+        <v>8.695012847367</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.28978865449244</v>
+        <v>37.57641838667554</v>
       </c>
       <c r="G14">
-        <v>2.097184259787673</v>
+        <v>3.682406510130205</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.101201790087109</v>
+        <v>10.69081152098905</v>
       </c>
       <c r="K14">
-        <v>13.79571546326815</v>
+        <v>11.99407277935692</v>
       </c>
       <c r="L14">
-        <v>7.949553938272236</v>
+        <v>11.48115686957404</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.70637440244129</v>
+        <v>20.78974564252298</v>
       </c>
       <c r="O14">
-        <v>18.68643834694447</v>
+        <v>28.60662272520747</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.06553039619892</v>
+        <v>16.34201111349037</v>
       </c>
       <c r="C15">
-        <v>6.866259288738383</v>
+        <v>8.725772954224658</v>
       </c>
       <c r="D15">
-        <v>6.710739251782807</v>
+        <v>8.691782352194775</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.24941817992039</v>
+        <v>37.58028129210601</v>
       </c>
       <c r="G15">
-        <v>2.097748993188276</v>
+        <v>3.682601897484504</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.104702236497137</v>
+        <v>10.69298707483816</v>
       </c>
       <c r="K15">
-        <v>13.72276546606991</v>
+        <v>11.97594829716257</v>
       </c>
       <c r="L15">
-        <v>7.928828420680234</v>
+        <v>11.47960376092353</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.73169914892497</v>
+        <v>20.79650155521044</v>
       </c>
       <c r="O15">
-        <v>18.67536709130462</v>
+        <v>28.61279711140024</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.52638625720461</v>
+        <v>16.19668032892609</v>
       </c>
       <c r="C16">
-        <v>6.837250154541673</v>
+        <v>8.718681212656941</v>
       </c>
       <c r="D16">
-        <v>6.573592479209882</v>
+        <v>8.673601821884619</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.02384844690776</v>
+        <v>37.60458392225643</v>
       </c>
       <c r="G16">
-        <v>2.1010079682606</v>
+        <v>3.683739211078251</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.125374656586273</v>
+        <v>10.70572695106473</v>
       </c>
       <c r="K16">
-        <v>13.29768787915648</v>
+        <v>11.87205283809932</v>
       </c>
       <c r="L16">
-        <v>7.810029355528481</v>
+        <v>11.47113390039693</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.87740800731367</v>
+        <v>20.83573000997952</v>
       </c>
       <c r="O16">
-        <v>18.61677363242836</v>
+        <v>28.64967391495271</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.1889101265266</v>
+        <v>16.10757798414328</v>
       </c>
       <c r="C17">
-        <v>6.819541228191526</v>
+        <v>8.714356694708476</v>
       </c>
       <c r="D17">
-        <v>6.488705640692491</v>
+        <v>8.662748358859353</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>25.89058730653149</v>
+        <v>37.62142541637385</v>
       </c>
       <c r="G17">
-        <v>2.103028030233643</v>
+        <v>3.684452680020182</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.138596836117181</v>
+        <v>10.71378607908515</v>
       </c>
       <c r="K17">
-        <v>13.0306189554002</v>
+        <v>11.80831747082956</v>
       </c>
       <c r="L17">
-        <v>7.737151916573224</v>
+        <v>11.46632369697995</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.96733960108227</v>
+        <v>20.86025413933389</v>
       </c>
       <c r="O17">
-        <v>18.5850730349554</v>
+        <v>28.67362901886735</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.99234395716852</v>
+        <v>16.05636516473822</v>
       </c>
       <c r="C18">
-        <v>6.809387457730113</v>
+        <v>8.711879105183877</v>
       </c>
       <c r="D18">
-        <v>6.439618997889348</v>
+        <v>8.656617174692501</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.81580493430625</v>
+        <v>37.63182236617357</v>
       </c>
       <c r="G18">
-        <v>2.104197755598215</v>
+        <v>3.684868855344298</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.146397951608561</v>
+        <v>10.71851113959513</v>
       </c>
       <c r="K18">
-        <v>12.87468451394237</v>
+        <v>11.77167062178887</v>
       </c>
       <c r="L18">
-        <v>7.695247002709224</v>
+        <v>11.46369944581931</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>13.01927496445609</v>
+        <v>20.87452872971526</v>
       </c>
       <c r="O18">
-        <v>18.56836591592283</v>
+        <v>28.68789673664556</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.9253692536961</v>
+        <v>16.03903326223381</v>
       </c>
       <c r="C19">
-        <v>6.80595504173106</v>
+        <v>8.711041930036004</v>
       </c>
       <c r="D19">
-        <v>6.422955529273949</v>
+        <v>8.654560522377409</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.79080387345242</v>
+        <v>37.63546455639472</v>
       </c>
       <c r="G19">
-        <v>2.104595169484435</v>
+        <v>3.685010763793515</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.149072719287689</v>
+        <v>10.7201263761324</v>
       </c>
       <c r="K19">
-        <v>12.82148790959162</v>
+        <v>11.75926580811893</v>
       </c>
       <c r="L19">
-        <v>7.681061951014616</v>
+        <v>11.462835448221</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>13.0368961507676</v>
+        <v>20.87939091529761</v>
       </c>
       <c r="O19">
-        <v>18.5629680961752</v>
+        <v>28.69281156481509</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.22508986577092</v>
+        <v>16.11705968626928</v>
       </c>
       <c r="C20">
-        <v>6.821423066158151</v>
+        <v>8.714816041314929</v>
       </c>
       <c r="D20">
-        <v>6.497769436800676</v>
+        <v>8.663892223799786</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>25.90457971415409</v>
+        <v>37.61955910867231</v>
       </c>
       <c r="G20">
-        <v>2.102812184311803</v>
+        <v>3.684376129354978</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.137168965052632</v>
+        <v>10.71291889430886</v>
       </c>
       <c r="K20">
-        <v>13.05928916875876</v>
+        <v>11.81510122605265</v>
       </c>
       <c r="L20">
-        <v>7.744908841179601</v>
+        <v>11.46682102325125</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.95774479350274</v>
+        <v>20.85762602562113</v>
       </c>
       <c r="O20">
-        <v>18.58828889764117</v>
+        <v>28.67102830234107</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.20263699854847</v>
+        <v>16.37953551352286</v>
       </c>
       <c r="C21">
-        <v>6.873775977789211</v>
+        <v>8.727611795513907</v>
       </c>
       <c r="D21">
-        <v>6.745904389492123</v>
+        <v>8.696567785149142</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.30925008036708</v>
+        <v>37.57460433040842</v>
       </c>
       <c r="G21">
-        <v>2.096913849208417</v>
+        <v>3.682313127921637</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.099534163688372</v>
+        <v>10.68977310225897</v>
       </c>
       <c r="K21">
-        <v>13.83057295245968</v>
+        <v>12.00276299896026</v>
       </c>
       <c r="L21">
-        <v>7.959491478488961</v>
+        <v>11.48190921535025</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.69424047022822</v>
+        <v>20.7865150611088</v>
       </c>
       <c r="O21">
-        <v>18.69183431538127</v>
+        <v>28.60368837381459</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.82699538418976</v>
+        <v>16.55104762228733</v>
       </c>
       <c r="C22">
-        <v>6.90827935686433</v>
+        <v>8.736057392989711</v>
       </c>
       <c r="D22">
-        <v>6.905452330144928</v>
+        <v>8.718887457949219</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>26.59064989986291</v>
+        <v>37.55154813417754</v>
       </c>
       <c r="G22">
-        <v>2.093124409886038</v>
+        <v>3.68101625683606</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.076738047710595</v>
+        <v>10.67544165009943</v>
       </c>
       <c r="K22">
-        <v>14.31416293361614</v>
+        <v>12.12527271782879</v>
       </c>
       <c r="L22">
-        <v>8.099604414344531</v>
+        <v>11.4930240294642</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.52368743341326</v>
+        <v>20.74153659729675</v>
       </c>
       <c r="O22">
-        <v>18.77380938947145</v>
+        <v>28.56404115158323</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.49224377860158</v>
+        <v>16.4595282339971</v>
       </c>
       <c r="C23">
-        <v>6.889837704717749</v>
+        <v>8.731542437785587</v>
       </c>
       <c r="D23">
-        <v>6.820551467174456</v>
+        <v>8.706888187652087</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>26.43889903330749</v>
+        <v>37.56327504049413</v>
       </c>
       <c r="G23">
-        <v>2.09514113279939</v>
+        <v>3.681703730400181</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.088737275939188</v>
+        <v>10.68301794660638</v>
       </c>
       <c r="K23">
-        <v>14.05792616677602</v>
+        <v>12.05991133856565</v>
       </c>
       <c r="L23">
-        <v>8.024846284869108</v>
+        <v>11.48697785739445</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.61457272422589</v>
+        <v>20.76540588576901</v>
       </c>
       <c r="O23">
-        <v>18.72871496359827</v>
+        <v>28.58480213133234</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.20874093462307</v>
+        <v>16.11277296328374</v>
       </c>
       <c r="C24">
-        <v>6.820572202124193</v>
+        <v>8.714608343783015</v>
       </c>
       <c r="D24">
-        <v>6.493672576024584</v>
+        <v>8.663374743837329</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>25.8982480463502</v>
+        <v>37.62040064061789</v>
       </c>
       <c r="G24">
-        <v>2.102909742151216</v>
+        <v>3.684410719241006</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.137813884725688</v>
+        <v>10.71331066269087</v>
       </c>
       <c r="K24">
-        <v>13.04633482098471</v>
+        <v>11.81203430168351</v>
       </c>
       <c r="L24">
-        <v>7.741401953720217</v>
+        <v>11.46659574207019</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.96208187968137</v>
+        <v>20.85881364955139</v>
       </c>
       <c r="O24">
-        <v>18.58683028589378</v>
+        <v>28.67220254254229</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.73060046149786</v>
+        <v>15.74035457517498</v>
       </c>
       <c r="C25">
-        <v>6.747079337581294</v>
+        <v>8.696717551040159</v>
       </c>
       <c r="D25">
-        <v>6.131292201143277</v>
+        <v>8.620713630533816</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.38615834404575</v>
+        <v>37.70916670088197</v>
       </c>
       <c r="G25">
-        <v>2.111591421341068</v>
+        <v>3.68755283511945</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.19821996489129</v>
+        <v>10.74941600977243</v>
       </c>
       <c r="K25">
-        <v>11.86625136637504</v>
+        <v>11.54526988411826</v>
       </c>
       <c r="L25">
-        <v>7.436296456823712</v>
+        <v>11.45006375653252</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.34502443977122</v>
+        <v>20.96603377198828</v>
       </c>
       <c r="O25">
-        <v>18.49169818473219</v>
+        <v>28.78518363954199</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_165/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_165/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.4694297723977</v>
+        <v>14.56406891041639</v>
       </c>
       <c r="C2">
-        <v>8.683885546606298</v>
+        <v>6.693999583948275</v>
       </c>
       <c r="D2">
-        <v>8.593108863058685</v>
+        <v>5.857912026584875</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.79784550607309</v>
+        <v>25.06804839520012</v>
       </c>
       <c r="G2">
-        <v>3.690059463900416</v>
+        <v>2.118266257366329</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.77896947804523</v>
+        <v>6.24886364581608</v>
       </c>
       <c r="K2">
-        <v>11.3506856861423</v>
+        <v>10.91986577299916</v>
       </c>
       <c r="L2">
-        <v>11.44264638805152</v>
+        <v>7.213578490435553</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>21.05059790501653</v>
+        <v>13.63499450237893</v>
       </c>
       <c r="O2">
-        <v>28.88443165949083</v>
+        <v>18.46748877737126</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.28884554334859</v>
+        <v>13.72673606824084</v>
       </c>
       <c r="C3">
-        <v>8.675411024714535</v>
+        <v>6.658668758934503</v>
       </c>
       <c r="D3">
-        <v>8.576835544423885</v>
+        <v>5.66967667269124</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>37.87246794870862</v>
+        <v>24.88788649490111</v>
       </c>
       <c r="G3">
-        <v>3.691879701003637</v>
+        <v>2.122976753121434</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.80086028108293</v>
+        <v>6.286916155595524</v>
       </c>
       <c r="K3">
-        <v>11.22063055540641</v>
+        <v>10.22977689673368</v>
       </c>
       <c r="L3">
-        <v>11.44061519637718</v>
+        <v>7.064609552577259</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>21.11144189968054</v>
+        <v>13.83699232682897</v>
       </c>
       <c r="O3">
-        <v>28.96169543763779</v>
+        <v>18.47763791571694</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.17978464295783</v>
+        <v>13.19052500751886</v>
       </c>
       <c r="C4">
-        <v>8.670320227093759</v>
+        <v>6.637292999436828</v>
       </c>
       <c r="D4">
-        <v>8.568063319501388</v>
+        <v>5.553072497221928</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.92544024266504</v>
+        <v>24.79421959024478</v>
       </c>
       <c r="G4">
-        <v>3.693057583477803</v>
+        <v>2.125964507534355</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.8152231293014</v>
+        <v>6.312085487194263</v>
       </c>
       <c r="K4">
-        <v>11.1418983205292</v>
+        <v>9.781962589618951</v>
       </c>
       <c r="L4">
-        <v>11.4408546834273</v>
+        <v>6.974383150548342</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.15055307974167</v>
+        <v>13.96387367717771</v>
       </c>
       <c r="O4">
-        <v>29.01406356972372</v>
+        <v>18.49628520648508</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.1358480352021</v>
+        <v>12.96665086555513</v>
       </c>
       <c r="C5">
-        <v>8.668274516789051</v>
+        <v>6.628662465965754</v>
       </c>
       <c r="D5">
-        <v>8.564798025370035</v>
+        <v>5.505368641677838</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>37.94882413945309</v>
+        <v>24.76022828528853</v>
       </c>
       <c r="G5">
-        <v>3.693552776935203</v>
+        <v>2.127206513485734</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.8213083720723</v>
+        <v>6.322791083812381</v>
       </c>
       <c r="K5">
-        <v>11.11013066652833</v>
+        <v>9.593413640056118</v>
       </c>
       <c r="L5">
-        <v>11.44132746088841</v>
+        <v>6.93796905353809</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.16693322714111</v>
+        <v>14.01631716768091</v>
       </c>
       <c r="O5">
-        <v>29.03664223690106</v>
+        <v>18.50690457391163</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.1285844158371</v>
+        <v>12.92915916613181</v>
       </c>
       <c r="C6">
-        <v>8.667936584532143</v>
+        <v>6.627234233487335</v>
       </c>
       <c r="D6">
-        <v>8.564274593118473</v>
+        <v>5.497438361725479</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>37.95281551411082</v>
+        <v>24.75483381632534</v>
       </c>
       <c r="G6">
-        <v>3.693635922649992</v>
+        <v>2.127414238786566</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.82233286410175</v>
+        <v>6.324595711988339</v>
       </c>
       <c r="K6">
-        <v>11.1048757689132</v>
+        <v>9.561739270492312</v>
       </c>
       <c r="L6">
-        <v>11.44142866267839</v>
+        <v>6.931945118186368</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.16967987319547</v>
+        <v>14.02507055021084</v>
       </c>
       <c r="O6">
-        <v>29.04046616503287</v>
+        <v>18.5088473681028</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.17918998282022</v>
+        <v>13.18752719827009</v>
       </c>
       <c r="C7">
-        <v>8.670292520509047</v>
+        <v>6.63717627946679</v>
       </c>
       <c r="D7">
-        <v>8.568018026107046</v>
+        <v>5.55242980419593</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.92574833143428</v>
+        <v>24.79374436945147</v>
       </c>
       <c r="G7">
-        <v>3.693064200236455</v>
+        <v>2.125981157979457</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.81530425595258</v>
+        <v>6.312228055421734</v>
       </c>
       <c r="K7">
-        <v>11.14146856507205</v>
+        <v>9.779444289818558</v>
       </c>
       <c r="L7">
-        <v>11.44085953865709</v>
+        <v>6.973890569066013</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.15077219669419</v>
+        <v>13.96457793227878</v>
       </c>
       <c r="O7">
-        <v>29.01436306126651</v>
+        <v>18.49641632754778</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.40681671279406</v>
+        <v>14.28004149242025</v>
       </c>
       <c r="C8">
-        <v>8.680940473442691</v>
+        <v>6.681751837737314</v>
       </c>
       <c r="D8">
-        <v>8.587246400607089</v>
+        <v>5.793262948571527</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>37.82208965750536</v>
+        <v>25.00236171072644</v>
       </c>
       <c r="G8">
-        <v>3.690674604923879</v>
+        <v>2.119870899850384</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.78632638846368</v>
+        <v>6.261606451276203</v>
       </c>
       <c r="K8">
-        <v>11.30563043755872</v>
+        <v>10.68692108668714</v>
       </c>
       <c r="L8">
-        <v>11.44163832577275</v>
+        <v>7.161981389618736</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>21.07121391599029</v>
+        <v>13.7040637771058</v>
       </c>
       <c r="O8">
-        <v>28.91004889906328</v>
+        <v>18.46835026882275</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.8654228435011</v>
+        <v>16.24086245780168</v>
       </c>
       <c r="C9">
-        <v>8.702692359880638</v>
+        <v>6.771674403617353</v>
       </c>
       <c r="D9">
-        <v>8.634501218719317</v>
+        <v>6.254516075426499</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.67564068144549</v>
+        <v>25.54934058206887</v>
       </c>
       <c r="G9">
-        <v>3.686464545824408</v>
+        <v>2.108624562703572</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.73679392798464</v>
+        <v>6.176897759428293</v>
       </c>
       <c r="K9">
-        <v>11.63493397923706</v>
+        <v>12.27574196726092</v>
       </c>
       <c r="L9">
-        <v>11.4548980996567</v>
+        <v>7.538869479669379</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.92904761927961</v>
+        <v>13.21485241775046</v>
       </c>
       <c r="O9">
-        <v>28.74462896259673</v>
+        <v>18.51635499741994</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.20685124540077</v>
+        <v>17.56456037649185</v>
       </c>
       <c r="C10">
-        <v>8.719175978805309</v>
+        <v>6.839275201585298</v>
       </c>
       <c r="D10">
-        <v>8.674855284577243</v>
+        <v>6.583242102864665</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>37.60275842662842</v>
+        <v>26.03930842721287</v>
       </c>
       <c r="G10">
-        <v>3.683658585162745</v>
+        <v>2.100778512990399</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.70481948861063</v>
+        <v>6.123892660544362</v>
       </c>
       <c r="K10">
-        <v>11.87932627443603</v>
+        <v>13.32784811305703</v>
       </c>
       <c r="L10">
-        <v>11.47170203203484</v>
+        <v>7.818345992787616</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.83295450368857</v>
+        <v>12.86717385909985</v>
       </c>
       <c r="O10">
-        <v>28.64700680276357</v>
+        <v>18.62060014251</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.36252373966465</v>
+        <v>18.14058122688302</v>
       </c>
       <c r="C11">
-        <v>8.72677775661154</v>
+        <v>6.870366880218803</v>
       </c>
       <c r="D11">
-        <v>8.694393801973076</v>
+        <v>6.729974208584337</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>37.57714871102992</v>
+        <v>26.28204612936567</v>
       </c>
       <c r="G11">
-        <v>3.682443806053085</v>
+        <v>2.097292167660957</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.69122649926382</v>
+        <v>6.10186879274732</v>
       </c>
       <c r="K11">
-        <v>11.99060702596748</v>
+        <v>13.78179232881385</v>
       </c>
       <c r="L11">
-        <v>11.48085820715746</v>
+        <v>7.945590776111744</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.79103559702131</v>
+        <v>12.71121508069984</v>
       </c>
       <c r="O11">
-        <v>28.60779767399776</v>
+        <v>18.68430217475966</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.42147224510433</v>
+        <v>18.35490880437315</v>
       </c>
       <c r="C12">
-        <v>8.729670644030923</v>
+        <v>6.882189914843035</v>
       </c>
       <c r="D12">
-        <v>8.701958399303136</v>
+        <v>6.785091310105982</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>37.5685359290612</v>
+        <v>26.37686616680225</v>
       </c>
       <c r="G12">
-        <v>3.681992620608324</v>
+        <v>2.095983250233362</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.68621566714397</v>
+        <v>6.093837016523154</v>
       </c>
       <c r="K12">
-        <v>12.03272571783718</v>
+        <v>13.95017337996919</v>
       </c>
       <c r="L12">
-        <v>11.48454074415533</v>
+        <v>7.993755907488992</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.7754186796307</v>
+        <v>12.65244458411316</v>
       </c>
       <c r="O12">
-        <v>28.59369855763495</v>
+        <v>18.71087033592388</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.40877750942814</v>
+        <v>18.3089189547745</v>
       </c>
       <c r="C13">
-        <v>8.729046984330779</v>
+        <v>6.87964141048841</v>
       </c>
       <c r="D13">
-        <v>8.700321921432133</v>
+        <v>6.773241375957155</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>37.57034258946836</v>
+        <v>26.3563152947877</v>
       </c>
       <c r="G13">
-        <v>3.682089399643888</v>
+        <v>2.096264657498017</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.68728877339116</v>
+        <v>6.095552965213422</v>
       </c>
       <c r="K13">
-        <v>12.02365620090058</v>
+        <v>13.91406546617798</v>
       </c>
       <c r="L13">
-        <v>11.4837381040335</v>
+        <v>7.983384094965082</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.77877065652944</v>
+        <v>12.6650895456966</v>
       </c>
       <c r="O13">
-        <v>28.59670175152862</v>
+        <v>18.70503799097103</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.36737379066634</v>
+        <v>18.15829039586864</v>
       </c>
       <c r="C14">
-        <v>8.727015473857511</v>
+        <v>6.87133857699301</v>
       </c>
       <c r="D14">
-        <v>8.695012847367</v>
+        <v>6.73451791643701</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>37.57641838667554</v>
+        <v>26.2897886544923</v>
       </c>
       <c r="G14">
-        <v>3.682406510130205</v>
+        <v>2.097184259787808</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.69081152098905</v>
+        <v>6.101201790087114</v>
       </c>
       <c r="K14">
-        <v>11.99407277935692</v>
+        <v>13.79571546326819</v>
       </c>
       <c r="L14">
-        <v>11.48115686957404</v>
+        <v>7.949553938272183</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.78974564252298</v>
+        <v>12.70637440244126</v>
       </c>
       <c r="O14">
-        <v>28.60662272520747</v>
+        <v>18.68643834694444</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.34201111349037</v>
+        <v>18.06553039619891</v>
       </c>
       <c r="C15">
-        <v>8.725772954224658</v>
+        <v>6.866259288738257</v>
       </c>
       <c r="D15">
-        <v>8.691782352194775</v>
+        <v>6.710739251782873</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>37.58028129210601</v>
+        <v>26.24941817992016</v>
       </c>
       <c r="G15">
-        <v>3.682601897484504</v>
+        <v>2.097748993188275</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.69298707483816</v>
+        <v>6.104702236497081</v>
       </c>
       <c r="K15">
-        <v>11.97594829716257</v>
+        <v>13.72276546606995</v>
       </c>
       <c r="L15">
-        <v>11.47960376092353</v>
+        <v>7.928828420680248</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.79650155521044</v>
+        <v>12.73169914892477</v>
       </c>
       <c r="O15">
-        <v>28.61279711140024</v>
+        <v>18.67536709130438</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.19668032892609</v>
+        <v>17.5263862572046</v>
       </c>
       <c r="C16">
-        <v>8.718681212656941</v>
+        <v>6.837250154541798</v>
       </c>
       <c r="D16">
-        <v>8.673601821884619</v>
+        <v>6.573592479209819</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>37.60458392225643</v>
+        <v>26.02384844690757</v>
       </c>
       <c r="G16">
-        <v>3.683739211078251</v>
+        <v>2.101007968260598</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.70572695106473</v>
+        <v>6.125374656586399</v>
       </c>
       <c r="K16">
-        <v>11.87205283809932</v>
+        <v>13.2976878791565</v>
       </c>
       <c r="L16">
-        <v>11.47113390039693</v>
+        <v>7.810029355528481</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.83573000997952</v>
+        <v>12.87740800731367</v>
       </c>
       <c r="O16">
-        <v>28.64967391495271</v>
+        <v>18.61677363242831</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.10757798414328</v>
+        <v>17.18891012652661</v>
       </c>
       <c r="C17">
-        <v>8.714356694708476</v>
+        <v>6.819541228191383</v>
       </c>
       <c r="D17">
-        <v>8.662748358859353</v>
+        <v>6.488705640692475</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>37.62142541637385</v>
+        <v>25.89058730653155</v>
       </c>
       <c r="G17">
-        <v>3.684452680020182</v>
+        <v>2.103028030233643</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.71378607908515</v>
+        <v>6.138596836117236</v>
       </c>
       <c r="K17">
-        <v>11.80831747082956</v>
+        <v>13.03061895540014</v>
       </c>
       <c r="L17">
-        <v>11.46632369697995</v>
+        <v>7.737151916573272</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.86025413933389</v>
+        <v>12.96733960108227</v>
       </c>
       <c r="O17">
-        <v>28.67362901886735</v>
+        <v>18.58507303495547</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.05636516473822</v>
+        <v>16.9923439571685</v>
       </c>
       <c r="C18">
-        <v>8.711879105183877</v>
+        <v>6.809387457729869</v>
       </c>
       <c r="D18">
-        <v>8.656617174692501</v>
+        <v>6.439618997889261</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>37.63182236617357</v>
+        <v>25.81580493430621</v>
       </c>
       <c r="G18">
-        <v>3.684868855344298</v>
+        <v>2.104197755598081</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.71851113959513</v>
+        <v>6.146397951608589</v>
       </c>
       <c r="K18">
-        <v>11.77167062178887</v>
+        <v>12.87468451394234</v>
       </c>
       <c r="L18">
-        <v>11.46369944581931</v>
+        <v>7.695247002709261</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.87452872971526</v>
+        <v>13.01927496445609</v>
       </c>
       <c r="O18">
-        <v>28.68789673664556</v>
+        <v>18.56836591592283</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.03903326223381</v>
+        <v>16.92536925369609</v>
       </c>
       <c r="C19">
-        <v>8.711041930036004</v>
+        <v>6.805955041731186</v>
       </c>
       <c r="D19">
-        <v>8.654560522377409</v>
+        <v>6.422955529273956</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>37.63546455639472</v>
+        <v>25.79080387345232</v>
       </c>
       <c r="G19">
-        <v>3.685010763793515</v>
+        <v>2.104595169484568</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.7201263761324</v>
+        <v>6.149072719287685</v>
       </c>
       <c r="K19">
-        <v>11.75926580811893</v>
+        <v>12.82148790959164</v>
       </c>
       <c r="L19">
-        <v>11.462835448221</v>
+        <v>7.681061951014636</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.87939091529761</v>
+        <v>13.03689615076756</v>
       </c>
       <c r="O19">
-        <v>28.69281156481509</v>
+        <v>18.56296809617512</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.11705968626928</v>
+        <v>17.22508986577089</v>
       </c>
       <c r="C20">
-        <v>8.714816041314929</v>
+        <v>6.82142306615815</v>
       </c>
       <c r="D20">
-        <v>8.663892223799786</v>
+        <v>6.497769436800573</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>37.61955910867231</v>
+        <v>25.90457971415388</v>
       </c>
       <c r="G20">
-        <v>3.684376129354978</v>
+        <v>2.102812184311666</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.71291889430886</v>
+        <v>6.13716896505264</v>
       </c>
       <c r="K20">
-        <v>11.81510122605265</v>
+        <v>13.05928916875881</v>
       </c>
       <c r="L20">
-        <v>11.46682102325125</v>
+        <v>7.744908841179581</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.85762602562113</v>
+        <v>12.95774479350264</v>
       </c>
       <c r="O20">
-        <v>28.67102830234107</v>
+        <v>18.58828889764101</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.37953551352286</v>
+        <v>18.20263699854848</v>
       </c>
       <c r="C21">
-        <v>8.727611795513907</v>
+        <v>6.873775977789079</v>
       </c>
       <c r="D21">
-        <v>8.696567785149142</v>
+        <v>6.745904389492109</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>37.57460433040842</v>
+        <v>26.30925008036708</v>
       </c>
       <c r="G21">
-        <v>3.682313127921637</v>
+        <v>2.096913849208283</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.68977310225897</v>
+        <v>6.099534163688376</v>
       </c>
       <c r="K21">
-        <v>12.00276299896026</v>
+        <v>13.83057295245969</v>
       </c>
       <c r="L21">
-        <v>11.48190921535025</v>
+        <v>7.95949147848896</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.7865150611088</v>
+        <v>12.69424047022822</v>
       </c>
       <c r="O21">
-        <v>28.60368837381459</v>
+        <v>18.69183431538129</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.55104762228733</v>
+        <v>18.82699538418977</v>
       </c>
       <c r="C22">
-        <v>8.736057392989711</v>
+        <v>6.908279356864455</v>
       </c>
       <c r="D22">
-        <v>8.718887457949219</v>
+        <v>6.905452330144872</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>37.55154813417754</v>
+        <v>26.5906498998628</v>
       </c>
       <c r="G22">
-        <v>3.68101625683606</v>
+        <v>2.093124409885904</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.67544165009943</v>
+        <v>6.076738047710572</v>
       </c>
       <c r="K22">
-        <v>12.12527271782879</v>
+        <v>14.31416293361617</v>
       </c>
       <c r="L22">
-        <v>11.4930240294642</v>
+        <v>8.099604414344471</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.74153659729675</v>
+        <v>12.52368743341319</v>
       </c>
       <c r="O22">
-        <v>28.56404115158323</v>
+        <v>18.77380938947136</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.4595282339971</v>
+        <v>18.49224377860159</v>
       </c>
       <c r="C23">
-        <v>8.731542437785587</v>
+        <v>6.889837704717618</v>
       </c>
       <c r="D23">
-        <v>8.706888187652087</v>
+        <v>6.820551467174392</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>37.56327504049413</v>
+        <v>26.43889903330743</v>
       </c>
       <c r="G23">
-        <v>3.681703730400181</v>
+        <v>2.095141132799526</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.68301794660638</v>
+        <v>6.088737275939248</v>
       </c>
       <c r="K23">
-        <v>12.05991133856565</v>
+        <v>14.05792616677604</v>
       </c>
       <c r="L23">
-        <v>11.48697785739445</v>
+        <v>8.024846284869119</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.76540588576901</v>
+        <v>12.61457272422589</v>
       </c>
       <c r="O23">
-        <v>28.58480213133234</v>
+        <v>18.72871496359825</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.11277296328374</v>
+        <v>17.20874093462304</v>
       </c>
       <c r="C24">
-        <v>8.714608343783015</v>
+        <v>6.82057220212382</v>
       </c>
       <c r="D24">
-        <v>8.663374743837329</v>
+        <v>6.493672576024544</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>37.62040064061789</v>
+        <v>25.89824804635016</v>
       </c>
       <c r="G24">
-        <v>3.684410719241006</v>
+        <v>2.102909742151216</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.71331066269087</v>
+        <v>6.137813884725752</v>
       </c>
       <c r="K24">
-        <v>11.81203430168351</v>
+        <v>13.04633482098472</v>
       </c>
       <c r="L24">
-        <v>11.46659574207019</v>
+        <v>7.741401953720251</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.85881364955139</v>
+        <v>12.9620818796814</v>
       </c>
       <c r="O24">
-        <v>28.67220254254229</v>
+        <v>18.5868302858938</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.74035457517498</v>
+        <v>15.73060046149786</v>
       </c>
       <c r="C25">
-        <v>8.696717551040159</v>
+        <v>6.747079337581018</v>
       </c>
       <c r="D25">
-        <v>8.620713630533816</v>
+        <v>6.131292201143254</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>37.70916670088197</v>
+        <v>25.38615834404573</v>
       </c>
       <c r="G25">
-        <v>3.68755283511945</v>
+        <v>2.111591421340668</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.74941600977243</v>
+        <v>6.198219964891202</v>
       </c>
       <c r="K25">
-        <v>11.54526988411826</v>
+        <v>11.86625136637505</v>
       </c>
       <c r="L25">
-        <v>11.45006375653252</v>
+        <v>7.436296456823713</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.96603377198828</v>
+        <v>13.34502443977118</v>
       </c>
       <c r="O25">
-        <v>28.78518363954199</v>
+        <v>18.49169818473218</v>
       </c>
     </row>
   </sheetData>
